--- a/XLS-FORMULES.xlsx
+++ b/XLS-FORMULES.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="787" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="787"/>
   </bookViews>
   <sheets>
     <sheet name="Funkcijos" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="LOOKUP" sheetId="7" r:id="rId10"/>
     <sheet name="VLOOKUP" sheetId="8" r:id="rId11"/>
     <sheet name="CELL" sheetId="9" r:id="rId12"/>
-    <sheet name="Terminai" sheetId="16" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Mano funkcijų moduliai'!$A$3:$B$91</definedName>
@@ -36,8 +35,8 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
+        <x14:slicerCache r:id="rId13"/>
         <x14:slicerCache r:id="rId14"/>
-        <x14:slicerCache r:id="rId15"/>
       </x15:slicerCaches>
     </ext>
   </extLst>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="543">
   <si>
     <t>Argumentai funkcijose</t>
   </si>
@@ -1763,219 +1762,6 @@
     <t>Pašalina iš teksto visus nespausdintinus simbolius. Naudokite CLEAN tekstui, importuotam iš kitų programų ir turinčiame simbolių, kurie gali būti nespausdinami jūsų operacinėje sistemoje.</t>
   </si>
   <si>
-    <t>Reikšmė, vertė [bet koks tekstas ar skaičius]</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>En-&gt;Lt</t>
-  </si>
-  <si>
-    <t>elementas, modulis, matų vienetas</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>nurodymas B3</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>Recent</t>
-  </si>
-  <si>
-    <t>Provide</t>
-  </si>
-  <si>
-    <t>Precision</t>
-  </si>
-  <si>
-    <t>Artimiausas</t>
-  </si>
-  <si>
-    <t>Nearest</t>
-  </si>
-  <si>
-    <t>Iteration</t>
-  </si>
-  <si>
-    <t>Sveikasis skaičius</t>
-  </si>
-  <si>
-    <t>Integer</t>
-  </si>
-  <si>
-    <t>Formatas</t>
-  </si>
-  <si>
-    <t>Format</t>
-  </si>
-  <si>
-    <t>Except</t>
-  </si>
-  <si>
-    <t>Evaluation</t>
-  </si>
-  <si>
-    <t>Enable</t>
-  </si>
-  <si>
-    <t>Drag And Drop</t>
-  </si>
-  <si>
-    <t>Disable</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>žemiau</t>
-  </si>
-  <si>
-    <t>Below</t>
-  </si>
-  <si>
-    <t>prieš, anksčiau</t>
-  </si>
-  <si>
-    <t>Before</t>
-  </si>
-  <si>
-    <t>remtis</t>
-  </si>
-  <si>
-    <t>Base</t>
-  </si>
-  <si>
-    <t>juosta</t>
-  </si>
-  <si>
-    <t>Bar</t>
-  </si>
-  <si>
-    <t>kopija</t>
-  </si>
-  <si>
-    <t>Backup</t>
-  </si>
-  <si>
-    <t>ištrinti</t>
-  </si>
-  <si>
-    <t>Backspace</t>
-  </si>
-  <si>
-    <t>galimas, leistinas</t>
-  </si>
-  <si>
-    <t>Avialable</t>
-  </si>
-  <si>
-    <t>pridėti, prijungti</t>
-  </si>
-  <si>
-    <t>Attach</t>
-  </si>
-  <si>
-    <t>kaip</t>
-  </si>
-  <si>
-    <t>As</t>
-  </si>
-  <si>
-    <t>strėlė, rodyklė</t>
-  </si>
-  <si>
-    <t>Arrow</t>
-  </si>
-  <si>
-    <t>sutvarkyti, pritaikyti</t>
-  </si>
-  <si>
-    <t>Arrange</t>
-  </si>
-  <si>
-    <t>masyvas, rinkinys [A1:d9]</t>
-  </si>
-  <si>
-    <t>Array</t>
-  </si>
-  <si>
-    <t>pritaikymas</t>
-  </si>
-  <si>
-    <t>Application</t>
-  </si>
-  <si>
-    <t>priktaikyti</t>
-  </si>
-  <si>
-    <t>Apply</t>
-  </si>
-  <si>
-    <t>leisti</t>
-  </si>
-  <si>
-    <t>Allow</t>
-  </si>
-  <si>
-    <t>pavojus, įspėjimas</t>
-  </si>
-  <si>
-    <t>Allert</t>
-  </si>
-  <si>
-    <t>Alert</t>
-  </si>
-  <si>
-    <t>patobulintas, pažangus</t>
-  </si>
-  <si>
-    <t>Advanced</t>
-  </si>
-  <si>
-    <t>pridėti, įtraukti</t>
-  </si>
-  <si>
-    <t>Add</t>
-  </si>
-  <si>
-    <t>skersai</t>
-  </si>
-  <si>
-    <t>Across</t>
-  </si>
-  <si>
-    <t>sąskaityba, apskaita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accounting </t>
-  </si>
-  <si>
-    <t>priimti, patvirtinti</t>
-  </si>
-  <si>
-    <t>Accept</t>
-  </si>
-  <si>
-    <t>viršuje</t>
-  </si>
-  <si>
-    <t>Above</t>
-  </si>
-  <si>
-    <t>Paaiškinimas</t>
-  </si>
-  <si>
-    <t>Terminas</t>
-  </si>
-  <si>
-    <t>Pvz</t>
-  </si>
-  <si>
     <t>Kiek simbolių celėje.</t>
   </si>
   <si>
@@ -2093,7 +1879,7 @@
     <numFmt numFmtId="164" formatCode="mmm/dd"/>
     <numFmt numFmtId="165" formatCode="0_ ;[Red]\-0\ "/>
   </numFmts>
-  <fonts count="53">
+  <fonts count="52">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2407,11 +2193,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="186"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="TimesLT"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2837,10 +2618,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3104,44 +2885,42 @@
     <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="46" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="47" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="47" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="46" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="48" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="47" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3150,6 +2929,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="43" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3165,15 +2953,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="43" fillId="21" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
@@ -3183,232 +2962,7 @@
     <cellStyle name="Normal 2 2" xfId="4"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="70">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <name val="TimesLT"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
+  <dxfs count="66">
     <dxf>
       <font>
         <b val="0"/>
@@ -4263,6 +3817,168 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -4477,6 +4193,26 @@
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -4679,7 +4415,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:H43" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:H43" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
   <autoFilter ref="A3:H43">
     <filterColumn colId="0">
       <filters>
@@ -4691,26 +4427,26 @@
     <sortCondition ref="B21"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="2" name="Filtras" dataDxfId="67"/>
-    <tableColumn id="3" name="Funkcija" dataDxfId="66"/>
-    <tableColumn id="4" name="Rezultatas" dataDxfId="65"/>
-    <tableColumn id="5" name="A" dataDxfId="64"/>
-    <tableColumn id="6" name="B" dataDxfId="63"/>
-    <tableColumn id="7" name="C" dataDxfId="62"/>
-    <tableColumn id="9" name="D" dataDxfId="61"/>
-    <tableColumn id="8" name="Pastabos" dataDxfId="60"/>
+    <tableColumn id="2" name="Filtras" dataDxfId="61"/>
+    <tableColumn id="3" name="Funkcija" dataDxfId="60"/>
+    <tableColumn id="4" name="Rezultatas" dataDxfId="59"/>
+    <tableColumn id="5" name="A" dataDxfId="58"/>
+    <tableColumn id="6" name="B" dataDxfId="57"/>
+    <tableColumn id="7" name="C" dataDxfId="56"/>
+    <tableColumn id="9" name="D" dataDxfId="55"/>
+    <tableColumn id="8" name="Pastabos" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Duomenys" displayName="Duomenys" ref="A3:C29" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Duomenys" displayName="Duomenys" ref="A3:C29" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A3:C29"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Material" dataDxfId="57"/>
-    <tableColumn id="2" name="m2" dataDxfId="56"/>
-    <tableColumn id="3" name="m2 sumif" dataDxfId="55">
+    <tableColumn id="1" name="Material" dataDxfId="33"/>
+    <tableColumn id="2" name="m2" dataDxfId="32"/>
+    <tableColumn id="3" name="m2 sumif" dataDxfId="31">
       <calculatedColumnFormula>IF(NOT(ISERROR(Duomenys[[#This Row],[Material]])),SUMIF(Duomenys[Material],Duomenys[[#This Row],[Material]],Duomenys[m2]),0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4719,13 +4455,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Material" displayName="Material" ref="E3:F17" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Material" displayName="Material" ref="E3:F17" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="E3:F17"/>
   <tableColumns count="2">
-    <tableColumn id="5" name="Material" dataDxfId="52">
+    <tableColumn id="5" name="Material" dataDxfId="28">
       <calculatedColumnFormula array="1">INDEX(Duomenys[Material],MATCH(0,COUNTIF($E$3:E3,Duomenys[Material]),0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="m2" dataDxfId="51">
+    <tableColumn id="3" name="m2" dataDxfId="27">
       <calculatedColumnFormula>VLOOKUP(Material[[#This Row],[Material]],Duomenys[],3,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4734,60 +4470,45 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="E5:J9" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49" tableBorderDxfId="48" headerRowCellStyle="Normal 3" dataCellStyle="Normal 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="E5:J9" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24" headerRowCellStyle="Normal 3" dataCellStyle="Normal 3">
   <autoFilter ref="E5:J9"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="st1" dataDxfId="47" dataCellStyle="Normal 3"/>
-    <tableColumn id="2" name="st2" dataDxfId="46" dataCellStyle="Normal 3"/>
-    <tableColumn id="3" name="st3" dataDxfId="45" dataCellStyle="Normal 3"/>
-    <tableColumn id="4" name="st4" dataDxfId="44" dataCellStyle="Normal 3"/>
-    <tableColumn id="5" name="st5" dataDxfId="43" dataCellStyle="Normal 3"/>
-    <tableColumn id="6" name="st6" dataDxfId="42" dataCellStyle="Normal 3"/>
+    <tableColumn id="1" name="st1" dataDxfId="23" dataCellStyle="Normal 3"/>
+    <tableColumn id="2" name="st2" dataDxfId="22" dataCellStyle="Normal 3"/>
+    <tableColumn id="3" name="st3" dataDxfId="21" dataCellStyle="Normal 3"/>
+    <tableColumn id="4" name="st4" dataDxfId="20" dataCellStyle="Normal 3"/>
+    <tableColumn id="5" name="st5" dataDxfId="19" dataCellStyle="Normal 3"/>
+    <tableColumn id="6" name="st6" dataDxfId="18" dataCellStyle="Normal 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="L11:Q16" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40" tableBorderDxfId="39" headerRowCellStyle="Normal 3" dataCellStyle="Normal 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="L11:Q16" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15" headerRowCellStyle="Normal 3" dataCellStyle="Normal 3">
   <autoFilter ref="L11:Q16"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="st1" dataDxfId="38" dataCellStyle="Normal 3"/>
-    <tableColumn id="2" name="st2" dataDxfId="37" dataCellStyle="Normal 3"/>
-    <tableColumn id="3" name="st3" dataDxfId="36" dataCellStyle="Normal 3"/>
-    <tableColumn id="4" name="st4" dataDxfId="35" dataCellStyle="Normal 3"/>
-    <tableColumn id="5" name="st5" dataDxfId="34" dataCellStyle="Normal 3"/>
-    <tableColumn id="6" name="st6" dataDxfId="33" dataCellStyle="Normal 3"/>
+    <tableColumn id="1" name="st1" dataDxfId="14" dataCellStyle="Normal 3"/>
+    <tableColumn id="2" name="st2" dataDxfId="13" dataCellStyle="Normal 3"/>
+    <tableColumn id="3" name="st3" dataDxfId="12" dataCellStyle="Normal 3"/>
+    <tableColumn id="4" name="st4" dataDxfId="11" dataCellStyle="Normal 3"/>
+    <tableColumn id="5" name="st5" dataDxfId="10" dataCellStyle="Normal 3"/>
+    <tableColumn id="6" name="st6" dataDxfId="9" dataCellStyle="Normal 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="S11:X17" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31" tableBorderDxfId="30" headerRowCellStyle="Normal 3" dataCellStyle="Normal 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table9" displayName="Table9" ref="S11:X17" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" tableBorderDxfId="6" headerRowCellStyle="Normal 3" dataCellStyle="Normal 3">
   <autoFilter ref="S11:X17"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="st1" dataDxfId="29" dataCellStyle="Normal 3"/>
-    <tableColumn id="2" name="st2" dataDxfId="28" dataCellStyle="Normal 3"/>
-    <tableColumn id="3" name="st3" dataDxfId="27" dataCellStyle="Normal 3"/>
-    <tableColumn id="4" name="st4" dataDxfId="26" dataCellStyle="Normal 3"/>
-    <tableColumn id="5" name="st5" dataDxfId="25" dataCellStyle="Normal 3"/>
-    <tableColumn id="6" name="st6" dataDxfId="24" dataCellStyle="Normal 3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Lentelė2" displayName="Lentelė2" ref="A1:C41" totalsRowShown="0">
-  <autoFilter ref="A1:C41"/>
-  <sortState ref="A2:C41">
-    <sortCondition ref="B38"/>
-  </sortState>
-  <tableColumns count="3">
-    <tableColumn id="3" name="Pvz"/>
-    <tableColumn id="1" name="Terminas" dataDxfId="23"/>
-    <tableColumn id="2" name="Paaiškinimas"/>
+    <tableColumn id="1" name="st1" dataDxfId="5" dataCellStyle="Normal 3"/>
+    <tableColumn id="2" name="st2" dataDxfId="4" dataCellStyle="Normal 3"/>
+    <tableColumn id="3" name="st3" dataDxfId="3" dataCellStyle="Normal 3"/>
+    <tableColumn id="4" name="st4" dataDxfId="2" dataCellStyle="Normal 3"/>
+    <tableColumn id="5" name="st5" dataDxfId="1" dataCellStyle="Normal 3"/>
+    <tableColumn id="6" name="st6" dataDxfId="0" dataCellStyle="Normal 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5083,7 +4804,7 @@
   <sheetPr codeName="Lapas1"/>
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
     </sheetView>
@@ -5102,24 +4823,24 @@
       <c r="A1" s="62"/>
       <c r="B1" s="62"/>
       <c r="C1" s="62"/>
-      <c r="D1" s="156" t="s">
+      <c r="D1" s="159" t="s">
         <v>255</v>
       </c>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
     </row>
     <row r="2" spans="1:8" ht="15.75">
       <c r="A2" s="62"/>
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
-      <c r="D2" s="155" t="s">
+      <c r="D2" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
       <c r="H2" s="62"/>
     </row>
     <row r="3" spans="1:8">
@@ -5155,16 +4876,16 @@
       <c r="B4" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C4" s="140">
+      <c r="C4" s="138">
         <f>_xlfn.ARABIC(Table1[[#This Row],[A]])</f>
         <v>7</v>
       </c>
-      <c r="D4" s="141" t="s">
+      <c r="D4" s="139" t="s">
         <v>471</v>
       </c>
-      <c r="E4" s="142"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="144"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="142"/>
       <c r="H4" s="1" t="s">
         <v>469</v>
       </c>
@@ -5176,20 +4897,20 @@
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="140">
+      <c r="C5" s="138">
         <f>AVERAGE(Table1[[#This Row],[A]],Table1[[#This Row],[B]],Table1[[#This Row],[C]])</f>
         <v>10</v>
       </c>
-      <c r="D5" s="141">
+      <c r="D5" s="139">
         <v>15</v>
       </c>
-      <c r="E5" s="145">
+      <c r="E5" s="143">
         <v>12</v>
       </c>
-      <c r="F5" s="146">
+      <c r="F5" s="144">
         <v>3</v>
       </c>
-      <c r="G5" s="144"/>
+      <c r="G5" s="142"/>
       <c r="H5" s="1" t="s">
         <v>94</v>
       </c>
@@ -5201,14 +4922,14 @@
       <c r="B6" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C6" s="140" t="str">
+      <c r="C6" s="138" t="str">
         <f ca="1">CELL("filename",C6)</f>
-        <v>C:\Users\User\Documents\DOKUMENTAI\[XLS-FORMULES.xlsx]Funkcijos</v>
-      </c>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
+        <v>C:\CodingVBA\[XLS-FORMULES.xlsx]Funkcijos</v>
+      </c>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
       <c r="H6" s="1" t="s">
         <v>56</v>
       </c>
@@ -5220,18 +4941,18 @@
       <c r="B7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="140" t="str">
+      <c r="C7" s="138" t="str">
         <f>CHOOSE(Table1[[#This Row],[A]],Table1[[#This Row],[B]],"kuolas","dvejetas","troikė",H7)</f>
         <v>kuolas</v>
       </c>
-      <c r="D7" s="141">
+      <c r="D7" s="139">
         <v>2</v>
       </c>
-      <c r="E7" s="145" t="s">
+      <c r="E7" s="143" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="143"/>
-      <c r="G7" s="144"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="142"/>
       <c r="H7" s="1" t="s">
         <v>462</v>
       </c>
@@ -5243,16 +4964,16 @@
       <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="140" t="str">
+      <c r="C8" s="138" t="str">
         <f>CLEAN(D8)</f>
         <v>MARius  &amp;ŪŪŪ3%$@!   ffff</v>
       </c>
-      <c r="D8" s="148" t="s">
+      <c r="D8" s="146" t="s">
         <v>505</v>
       </c>
-      <c r="E8" s="142"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="144"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="142"/>
       <c r="H8" s="1" t="s">
         <v>506</v>
       </c>
@@ -5264,14 +4985,14 @@
       <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="140">
+      <c r="C9" s="138">
         <f>COLUMN(Table1[[#This Row],[A]])</f>
         <v>4</v>
       </c>
-      <c r="D9" s="141"/>
-      <c r="E9" s="143"/>
-      <c r="F9" s="143"/>
-      <c r="G9" s="144"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="142"/>
       <c r="H9" s="1" t="s">
         <v>36</v>
       </c>
@@ -5283,18 +5004,18 @@
       <c r="B10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="140">
+      <c r="C10" s="138">
         <f>COUNTBLANK(Table1[[#This Row],[A]:[D]])</f>
         <v>1</v>
       </c>
-      <c r="D10" s="141">
+      <c r="D10" s="139">
         <v>5155</v>
       </c>
-      <c r="E10" s="145" t="s">
+      <c r="E10" s="143" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="146"/>
-      <c r="G10" s="149" t="s">
+      <c r="F10" s="144"/>
+      <c r="G10" s="147" t="s">
         <v>272</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -5308,20 +5029,20 @@
       <c r="B11" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C11" s="140">
+      <c r="C11" s="138">
         <f>COUNTIF(Table1[[#This Row],[A]:[C]],Table1[[#This Row],[D]])</f>
         <v>2</v>
       </c>
-      <c r="D11" s="141" t="s">
+      <c r="D11" s="139" t="s">
         <v>276</v>
       </c>
-      <c r="E11" s="145" t="s">
+      <c r="E11" s="143" t="s">
         <v>277</v>
       </c>
-      <c r="F11" s="146" t="s">
+      <c r="F11" s="144" t="s">
         <v>276</v>
       </c>
-      <c r="G11" s="149" t="s">
+      <c r="G11" s="147" t="s">
         <v>276</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -5335,16 +5056,16 @@
       <c r="B12" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C12" s="140">
+      <c r="C12" s="138">
         <f>DAY(Table1[[#This Row],[A]])</f>
         <v>16</v>
       </c>
-      <c r="D12" s="150">
+      <c r="D12" s="148">
         <v>42201</v>
       </c>
-      <c r="E12" s="143"/>
-      <c r="F12" s="143"/>
-      <c r="G12" s="144"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="142"/>
       <c r="H12" s="1" t="s">
         <v>265</v>
       </c>
@@ -5356,18 +5077,18 @@
       <c r="B13" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C13" s="140">
+      <c r="C13" s="138">
         <f>_xlfn.DAYS(Table1[[#This Row],[A]],Table1[[#This Row],[B]])</f>
         <v>3</v>
       </c>
-      <c r="D13" s="150">
+      <c r="D13" s="148">
         <v>42203</v>
       </c>
-      <c r="E13" s="151">
+      <c r="E13" s="149">
         <v>42200</v>
       </c>
-      <c r="F13" s="143"/>
-      <c r="G13" s="144"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="142"/>
       <c r="H13" s="1" t="s">
         <v>262</v>
       </c>
@@ -5379,18 +5100,18 @@
       <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="140" t="b">
+      <c r="C14" s="138" t="b">
         <f>EXACT(Table1[[#This Row],[A]],Table1[[#This Row],[B]])</f>
         <v>0</v>
       </c>
-      <c r="D14" s="141" t="s">
+      <c r="D14" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="145" t="s">
+      <c r="E14" s="143" t="s">
         <v>466</v>
       </c>
-      <c r="F14" s="143"/>
-      <c r="G14" s="144"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="142"/>
       <c r="H14" s="1" t="s">
         <v>467</v>
       </c>
@@ -5402,20 +5123,20 @@
       <c r="B15" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="C15" s="140">
+      <c r="C15" s="138">
         <f>FIND(Table1[[#This Row],[A]],Table1[[#This Row],[B]],Table1[[#This Row],[C]])</f>
         <v>9</v>
       </c>
-      <c r="D15" s="141" t="s">
+      <c r="D15" s="139" t="s">
         <v>504</v>
       </c>
-      <c r="E15" s="145" t="s">
+      <c r="E15" s="143" t="s">
         <v>503</v>
       </c>
-      <c r="F15" s="146">
+      <c r="F15" s="144">
         <v>5</v>
       </c>
-      <c r="G15" s="144"/>
+      <c r="G15" s="142"/>
       <c r="H15" s="1" t="s">
         <v>502</v>
       </c>
@@ -5427,20 +5148,20 @@
       <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="140">
+      <c r="C16" s="138">
         <f>FLOOR(Table1[[#This Row],[A]],Table1[[#This Row],[B]])</f>
         <v>585</v>
       </c>
-      <c r="D16" s="141">
+      <c r="D16" s="139">
         <v>585.00000999999997</v>
       </c>
-      <c r="E16" s="145">
+      <c r="E16" s="143">
         <v>1</v>
       </c>
-      <c r="F16" s="143"/>
-      <c r="G16" s="144"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="142"/>
       <c r="H16" s="1" t="s">
-        <v>590</v>
+        <v>519</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" hidden="1">
@@ -5450,18 +5171,18 @@
       <c r="B17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="140" t="str">
+      <c r="C17" s="138" t="str">
         <f>IFERROR(D17/E17,"KLAIDA")</f>
         <v>KLAIDA</v>
       </c>
-      <c r="D17" s="141">
+      <c r="D17" s="139">
         <v>50</v>
       </c>
-      <c r="E17" s="145">
+      <c r="E17" s="143">
         <v>0</v>
       </c>
-      <c r="F17" s="143"/>
-      <c r="G17" s="144"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="142"/>
       <c r="H17" s="1" t="s">
         <v>43</v>
       </c>
@@ -5473,16 +5194,16 @@
       <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="140">
+      <c r="C18" s="138">
         <f>INT(Table1[[#This Row],[A]])</f>
         <v>562</v>
       </c>
-      <c r="D18" s="141">
+      <c r="D18" s="139">
         <v>562.99999990000003</v>
       </c>
-      <c r="E18" s="143"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="144"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="142"/>
       <c r="H18" s="1" t="s">
         <v>269</v>
       </c>
@@ -5494,16 +5215,16 @@
       <c r="B19" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C19" s="140">
+      <c r="C19" s="138">
         <f>_xlfn.ISOWEEKNUM(Table1[[#This Row],[A]])</f>
         <v>29</v>
       </c>
-      <c r="D19" s="150">
+      <c r="D19" s="148">
         <v>42201</v>
       </c>
-      <c r="E19" s="144"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="144"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="142"/>
       <c r="H19" s="1" t="s">
         <v>266</v>
       </c>
@@ -5515,20 +5236,20 @@
       <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="140" t="str">
+      <c r="C20" s="138" t="str">
         <f>LEFT(Table1[[#This Row],[A]],Table1[[#This Row],[B]])</f>
         <v>MALF-GT</v>
       </c>
-      <c r="D20" s="141" t="s">
+      <c r="D20" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="145">
+      <c r="E20" s="143">
         <v>7</v>
       </c>
-      <c r="F20" s="143"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="139" t="s">
-        <v>581</v>
+      <c r="F20" s="141"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="137" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" hidden="1">
@@ -5538,18 +5259,18 @@
       <c r="B21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="140">
+      <c r="C21" s="138">
         <f>LEN(Table1[[#This Row],[A]])</f>
         <v>7</v>
       </c>
-      <c r="D21" s="141" t="s">
+      <c r="D21" s="139" t="s">
         <v>501</v>
       </c>
-      <c r="E21" s="142"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="139" t="s">
-        <v>578</v>
+      <c r="E21" s="140"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="137" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" hidden="1">
@@ -5559,18 +5280,18 @@
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="140" t="str">
+      <c r="C22" s="138" t="str">
         <f>LOWER(Table1[[#This Row],[A]])</f>
         <v>marius</v>
       </c>
-      <c r="D22" s="141" t="s">
+      <c r="D22" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="143"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="144"/>
-      <c r="H22" s="139" t="s">
-        <v>580</v>
+      <c r="E22" s="141"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="137" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" hidden="1">
@@ -5580,22 +5301,22 @@
       <c r="B23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="140" t="str">
+      <c r="C23" s="138" t="str">
         <f>MID(Table1[[#This Row],[A]],Table1[[#This Row],[B]],Table1[[#This Row],[C]])</f>
         <v>RI</v>
       </c>
-      <c r="D23" s="141" t="s">
+      <c r="D23" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="145">
+      <c r="E23" s="143">
         <v>3</v>
       </c>
-      <c r="F23" s="146">
+      <c r="F23" s="144">
         <v>2</v>
       </c>
-      <c r="G23" s="144"/>
-      <c r="H23" s="139" t="s">
-        <v>579</v>
+      <c r="G23" s="142"/>
+      <c r="H23" s="137" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75">
@@ -5605,19 +5326,19 @@
       <c r="B24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="140">
+      <c r="C24" s="138">
         <f>MOD(Table1[[#This Row],[A]],Table1[[#This Row],[B]])</f>
         <v>1.8890000000000002</v>
       </c>
-      <c r="D24" s="141">
+      <c r="D24" s="139">
         <v>5.8890000000000002</v>
       </c>
-      <c r="E24" s="145">
+      <c r="E24" s="143">
         <v>2</v>
       </c>
-      <c r="F24" s="144"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="139" t="s">
+      <c r="F24" s="142"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="137" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5628,16 +5349,16 @@
       <c r="B25" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C25" s="140">
+      <c r="C25" s="138">
         <f>MONTH(Table1[[#This Row],[A]])</f>
         <v>7</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="148">
         <v>42201</v>
       </c>
-      <c r="E25" s="144"/>
-      <c r="F25" s="144"/>
-      <c r="G25" s="144"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="142"/>
       <c r="H25" s="1" t="s">
         <v>268</v>
       </c>
@@ -5649,18 +5370,18 @@
       <c r="B26" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C26" s="140">
+      <c r="C26" s="138">
         <f>NETWORKDAYS(Table1[[#This Row],[A]],Table1[[#This Row],[B]],Table1[[#This Row],[C]])</f>
         <v>6</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="148">
         <v>42370</v>
       </c>
-      <c r="E26" s="151">
+      <c r="E26" s="149">
         <v>42379</v>
       </c>
-      <c r="F26" s="152"/>
-      <c r="G26" s="144"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="142"/>
       <c r="H26" s="1" t="s">
         <v>475</v>
       </c>
@@ -5672,16 +5393,16 @@
       <c r="B27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="140" t="str">
+      <c r="C27" s="138" t="str">
         <f>PROPER(Table1[[#This Row],[A]])</f>
         <v>Kuncius</v>
       </c>
-      <c r="D27" s="141" t="s">
+      <c r="D27" s="139" t="s">
         <v>258</v>
       </c>
-      <c r="E27" s="144"/>
-      <c r="F27" s="144"/>
-      <c r="G27" s="144"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="142"/>
       <c r="H27" s="1" t="s">
         <v>257</v>
       </c>
@@ -5693,24 +5414,24 @@
       <c r="B28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="140" t="str">
+      <c r="C28" s="138" t="str">
         <f>REPLACE(Table1[[#This Row],[A]],Table1[[#This Row],[B]],Table1[[#This Row],[C]],Table1[[#This Row],[D]])</f>
         <v>MOOOUS</v>
       </c>
-      <c r="D28" s="141" t="s">
+      <c r="D28" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="145">
+      <c r="E28" s="143">
         <v>2</v>
       </c>
-      <c r="F28" s="146">
+      <c r="F28" s="144">
         <v>3</v>
       </c>
-      <c r="G28" s="149" t="s">
+      <c r="G28" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="139" t="s">
-        <v>582</v>
+      <c r="H28" s="137" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" hidden="1">
@@ -5720,20 +5441,20 @@
       <c r="B29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="140" t="str">
+      <c r="C29" s="138" t="str">
         <f>REPT(Table1[[#This Row],[A]],Table1[[#This Row],[B]])</f>
         <v xml:space="preserve">MAR+ MAR+ MAR+ </v>
       </c>
-      <c r="D29" s="141" t="s">
+      <c r="D29" s="139" t="s">
         <v>461</v>
       </c>
-      <c r="E29" s="145">
+      <c r="E29" s="143">
         <v>3</v>
       </c>
-      <c r="F29" s="143"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="139" t="s">
-        <v>583</v>
+      <c r="F29" s="141"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="137" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" hidden="1">
@@ -5743,18 +5464,18 @@
       <c r="B30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="140" t="str">
+      <c r="C30" s="138" t="str">
         <f>RIGHT(Table1[[#This Row],[A]],Table1[[#This Row],[B]])</f>
         <v/>
       </c>
-      <c r="D30" s="141" t="s">
+      <c r="D30" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="145"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="139" t="s">
-        <v>584</v>
+      <c r="E30" s="143"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="137" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="15.75" hidden="1">
@@ -5764,17 +5485,17 @@
       <c r="B31" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C31" s="140" t="str">
+      <c r="C31" s="138" t="str">
         <f>ROMAN(Table1[[#This Row],[A]])</f>
         <v>VIII</v>
       </c>
-      <c r="D31" s="141">
+      <c r="D31" s="139">
         <v>8</v>
       </c>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="144"/>
-      <c r="H31" s="139" t="s">
+      <c r="E31" s="142"/>
+      <c r="F31" s="142"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="137" t="s">
         <v>468</v>
       </c>
     </row>
@@ -5785,21 +5506,21 @@
       <c r="B32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="140">
+      <c r="C32" s="138">
         <f>SEARCH(Table1[[#This Row],[A]],Table1[[#This Row],[B]],Table1[[#This Row],[C]])</f>
         <v>4</v>
       </c>
-      <c r="D32" s="141" t="s">
+      <c r="D32" s="139" t="s">
         <v>142</v>
       </c>
-      <c r="E32" s="145" t="s">
+      <c r="E32" s="143" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="146">
+      <c r="F32" s="144">
         <v>1</v>
       </c>
-      <c r="G32" s="144"/>
-      <c r="H32" s="139" t="s">
+      <c r="G32" s="142"/>
+      <c r="H32" s="137" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5810,18 +5531,18 @@
       <c r="B33" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C33" s="140">
+      <c r="C33" s="138">
         <f>+SIGN(Table1[[#This Row],[A]])</f>
         <v>-1</v>
       </c>
-      <c r="D33" s="141">
+      <c r="D33" s="139">
         <v>-8</v>
       </c>
-      <c r="E33" s="143"/>
-      <c r="F33" s="143"/>
-      <c r="G33" s="143"/>
-      <c r="H33" s="139" t="s">
-        <v>589</v>
+      <c r="E33" s="141"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="137" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" hidden="1">
@@ -5831,23 +5552,23 @@
       <c r="B34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="140" t="str">
+      <c r="C34" s="138" t="str">
         <f>SUBSTITUTE(Table1[[#This Row],[A]],Table1[[#This Row],[B]],Table1[[#This Row],[C]],Table1[[#This Row],[D]])</f>
         <v>ma,a</v>
       </c>
-      <c r="D34" s="141" t="s">
+      <c r="D34" s="139" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="145" t="s">
+      <c r="E34" s="143" t="s">
         <v>473</v>
       </c>
-      <c r="F34" s="146" t="s">
+      <c r="F34" s="144" t="s">
         <v>256</v>
       </c>
-      <c r="G34" s="149">
+      <c r="G34" s="147">
         <v>2</v>
       </c>
-      <c r="H34" s="139" t="s">
+      <c r="H34" s="137" t="s">
         <v>474</v>
       </c>
     </row>
@@ -5858,23 +5579,23 @@
       <c r="B35" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C35" s="140">
+      <c r="C35" s="138">
         <f>SUMIF(Table1[[#This Row],[A]:[C]],Table1[[#This Row],[D]])</f>
         <v>6</v>
       </c>
-      <c r="D35" s="141">
+      <c r="D35" s="139">
         <v>3</v>
       </c>
-      <c r="E35" s="145" t="s">
+      <c r="E35" s="143" t="s">
         <v>336</v>
       </c>
-      <c r="F35" s="146">
+      <c r="F35" s="144">
         <v>3</v>
       </c>
-      <c r="G35" s="149">
+      <c r="G35" s="147">
         <v>3</v>
       </c>
-      <c r="H35" s="139" t="s">
+      <c r="H35" s="137" t="s">
         <v>335</v>
       </c>
     </row>
@@ -5885,17 +5606,17 @@
       <c r="B36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="140" t="str">
+      <c r="C36" s="138" t="str">
         <f>T(Table1[[#This Row],[A]])</f>
         <v>5h8u5</v>
       </c>
-      <c r="D36" s="141" t="s">
+      <c r="D36" s="139" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="142"/>
-      <c r="F36" s="143"/>
-      <c r="G36" s="144"/>
-      <c r="H36" s="139" t="s">
+      <c r="E36" s="140"/>
+      <c r="F36" s="141"/>
+      <c r="G36" s="142"/>
+      <c r="H36" s="137" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5906,19 +5627,19 @@
       <c r="B37" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="140" t="str">
+      <c r="C37" s="138" t="str">
         <f>TEXT(Table1[[#This Row],[A]],Table1[[#This Row],[B]])</f>
         <v>0000234,6</v>
       </c>
-      <c r="D37" s="141">
+      <c r="D37" s="139">
         <v>234.59</v>
       </c>
-      <c r="E37" s="153" t="s">
+      <c r="E37" s="151" t="s">
         <v>476</v>
       </c>
-      <c r="F37" s="143"/>
-      <c r="G37" s="144"/>
-      <c r="H37" s="139" t="s">
+      <c r="F37" s="141"/>
+      <c r="G37" s="142"/>
+      <c r="H37" s="137" t="s">
         <v>464</v>
       </c>
     </row>
@@ -5929,17 +5650,17 @@
       <c r="B38" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="140" t="str">
+      <c r="C38" s="138" t="str">
         <f>TRIM(Table1[[#This Row],[A]])</f>
         <v>e tt tyrhsrty erg</v>
       </c>
-      <c r="D38" s="141" t="s">
+      <c r="D38" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="142"/>
-      <c r="F38" s="143"/>
-      <c r="G38" s="144"/>
-      <c r="H38" s="139" t="s">
+      <c r="E38" s="140"/>
+      <c r="F38" s="141"/>
+      <c r="G38" s="142"/>
+      <c r="H38" s="137" t="s">
         <v>259</v>
       </c>
     </row>
@@ -5950,18 +5671,18 @@
       <c r="B39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="140">
+      <c r="C39" s="138">
         <f>TRUNC(Table1[[#This Row],[A]])</f>
         <v>589</v>
       </c>
-      <c r="D39" s="141">
+      <c r="D39" s="139">
         <v>589.93658100000005</v>
       </c>
-      <c r="E39" s="142"/>
-      <c r="F39" s="143"/>
-      <c r="G39" s="144"/>
-      <c r="H39" s="139" t="s">
-        <v>591</v>
+      <c r="E39" s="140"/>
+      <c r="F39" s="141"/>
+      <c r="G39" s="142"/>
+      <c r="H39" s="137" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" hidden="1">
@@ -5971,17 +5692,17 @@
       <c r="B40" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="140" t="str">
+      <c r="C40" s="138" t="str">
         <f>UPPER(Table1[[#This Row],[A]])</f>
         <v>DDEEFEFS</v>
       </c>
-      <c r="D40" s="141" t="s">
+      <c r="D40" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="E40" s="142"/>
-      <c r="F40" s="143"/>
-      <c r="G40" s="144"/>
-      <c r="H40" s="139" t="s">
+      <c r="E40" s="140"/>
+      <c r="F40" s="141"/>
+      <c r="G40" s="142"/>
+      <c r="H40" s="137" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5992,17 +5713,17 @@
       <c r="B41" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="140">
+      <c r="C41" s="138">
         <f>VALUE(Table1[[#This Row],[A]])</f>
         <v>445</v>
       </c>
-      <c r="D41" s="141">
+      <c r="D41" s="139">
         <v>445</v>
       </c>
-      <c r="E41" s="142"/>
-      <c r="F41" s="143"/>
-      <c r="G41" s="144"/>
-      <c r="H41" s="139" t="s">
+      <c r="E41" s="140"/>
+      <c r="F41" s="141"/>
+      <c r="G41" s="142"/>
+      <c r="H41" s="137" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6011,20 +5732,20 @@
         <v>53</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="C42" s="140" t="b">
+        <v>514</v>
+      </c>
+      <c r="C42" s="138" t="b">
         <f>ISEVEN(Table1[[#This Row],[A]])</f>
         <v>0</v>
       </c>
-      <c r="D42" s="141">
+      <c r="D42" s="139">
         <v>3</v>
       </c>
-      <c r="E42" s="142"/>
-      <c r="F42" s="143"/>
-      <c r="G42" s="144"/>
+      <c r="E42" s="140"/>
+      <c r="F42" s="141"/>
+      <c r="G42" s="142"/>
       <c r="H42" s="1" t="s">
-        <v>588</v>
+        <v>517</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15.75">
@@ -6032,20 +5753,20 @@
         <v>53</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="C43" s="140" t="b">
+        <v>515</v>
+      </c>
+      <c r="C43" s="138" t="b">
         <f>ISODD(Table1[[#This Row],[A]])</f>
         <v>1</v>
       </c>
-      <c r="D43" s="141">
+      <c r="D43" s="139">
         <v>3</v>
       </c>
-      <c r="E43" s="145"/>
-      <c r="F43" s="146"/>
-      <c r="G43" s="149"/>
+      <c r="E43" s="143"/>
+      <c r="F43" s="144"/>
+      <c r="G43" s="147"/>
       <c r="H43" s="1" t="s">
-        <v>587</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -6054,10 +5775,10 @@
     <mergeCell ref="D1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="B1:B42 B44:B1048576">
-    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="65" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="64" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -6725,7 +6446,7 @@
       </c>
       <c r="B10" s="60" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>C:\Users\User\Documents\DOKUMENTAI\[XLS-FORMULES.xlsx]CELL</v>
+        <v>C:\CodingVBA\[XLS-FORMULES.xlsx]CELL</v>
       </c>
       <c r="D10" s="55"/>
       <c r="E10" s="55"/>
@@ -6974,10 +6695,10 @@
       </c>
     </row>
     <row r="36" spans="1:2" ht="55.5" customHeight="1">
-      <c r="A36" s="158" t="s">
+      <c r="A36" s="161" t="s">
         <v>208</v>
       </c>
-      <c r="B36" s="159"/>
+      <c r="B36" s="162"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="52" t="s">
@@ -7169,458 +6890,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Lapas11"/>
-  <dimension ref="A1:C41"/>
-  <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="13.7109375" style="137" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="137" customWidth="1"/>
-    <col min="3" max="3" width="53" style="137" customWidth="1"/>
-    <col min="4" max="6" width="15.5703125" style="137" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="137"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="137" t="s">
-        <v>577</v>
-      </c>
-      <c r="B1" s="137" t="s">
-        <v>576</v>
-      </c>
-      <c r="C1" s="137" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="137" t="s">
-        <v>509</v>
-      </c>
-      <c r="B2" s="138" t="s">
-        <v>574</v>
-      </c>
-      <c r="C2" s="137" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="137" t="s">
-        <v>509</v>
-      </c>
-      <c r="B3" s="138" t="s">
-        <v>572</v>
-      </c>
-      <c r="C3" s="137" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="137" t="s">
-        <v>509</v>
-      </c>
-      <c r="B4" s="138" t="s">
-        <v>570</v>
-      </c>
-      <c r="C4" s="137" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="137" t="s">
-        <v>509</v>
-      </c>
-      <c r="B5" s="138" t="s">
-        <v>568</v>
-      </c>
-      <c r="C5" s="137" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="137" t="s">
-        <v>509</v>
-      </c>
-      <c r="B6" s="138" t="s">
-        <v>566</v>
-      </c>
-      <c r="C6" s="137" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="137" t="s">
-        <v>509</v>
-      </c>
-      <c r="B7" s="138" t="s">
-        <v>564</v>
-      </c>
-      <c r="C7" s="137" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="137" t="s">
-        <v>509</v>
-      </c>
-      <c r="B8" s="138" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="137" t="s">
-        <v>509</v>
-      </c>
-      <c r="B9" s="138" t="s">
-        <v>561</v>
-      </c>
-      <c r="C9" s="137" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="137" t="s">
-        <v>509</v>
-      </c>
-      <c r="B10" s="138" t="s">
-        <v>559</v>
-      </c>
-      <c r="C10" s="137" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="137" t="s">
-        <v>509</v>
-      </c>
-      <c r="B11" s="138" t="s">
-        <v>557</v>
-      </c>
-      <c r="C11" s="137" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="137" t="s">
-        <v>509</v>
-      </c>
-      <c r="B12" s="138" t="s">
-        <v>555</v>
-      </c>
-      <c r="C12" s="137" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="137" t="s">
-        <v>509</v>
-      </c>
-      <c r="B13" s="138" t="s">
-        <v>553</v>
-      </c>
-      <c r="C13" s="137" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="137" t="s">
-        <v>509</v>
-      </c>
-      <c r="B14" s="138" t="s">
-        <v>551</v>
-      </c>
-      <c r="C14" s="137" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="137" t="s">
-        <v>509</v>
-      </c>
-      <c r="B15" s="138" t="s">
-        <v>549</v>
-      </c>
-      <c r="C15" s="137" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="137" t="s">
-        <v>509</v>
-      </c>
-      <c r="B16" s="138" t="s">
-        <v>547</v>
-      </c>
-      <c r="C16" s="137" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="137" t="s">
-        <v>509</v>
-      </c>
-      <c r="B17" s="138" t="s">
-        <v>545</v>
-      </c>
-      <c r="C17" s="137" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="137" t="s">
-        <v>509</v>
-      </c>
-      <c r="B18" s="138" t="s">
-        <v>543</v>
-      </c>
-      <c r="C18" s="137" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="137" t="s">
-        <v>509</v>
-      </c>
-      <c r="B19" s="138" t="s">
-        <v>541</v>
-      </c>
-      <c r="C19" s="137" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="137" t="s">
-        <v>509</v>
-      </c>
-      <c r="B20" s="138" t="s">
-        <v>539</v>
-      </c>
-      <c r="C20" s="137" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="137" t="s">
-        <v>509</v>
-      </c>
-      <c r="B21" s="138" t="s">
-        <v>537</v>
-      </c>
-      <c r="C21" s="137" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="137" t="s">
-        <v>509</v>
-      </c>
-      <c r="B22" s="138" t="s">
-        <v>535</v>
-      </c>
-      <c r="C22" s="137" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="137" t="s">
-        <v>509</v>
-      </c>
-      <c r="B23" s="138" t="s">
-        <v>533</v>
-      </c>
-      <c r="C23" s="137" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="137" t="s">
-        <v>509</v>
-      </c>
-      <c r="B24" s="138" t="s">
-        <v>531</v>
-      </c>
-      <c r="C24" s="137" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="137" t="s">
-        <v>509</v>
-      </c>
-      <c r="B25" s="138" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="137" t="s">
-        <v>509</v>
-      </c>
-      <c r="B26" s="138" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="137" t="s">
-        <v>509</v>
-      </c>
-      <c r="B27" s="138" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="137" t="s">
-        <v>509</v>
-      </c>
-      <c r="B28" s="138" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="137" t="s">
-        <v>509</v>
-      </c>
-      <c r="B29" s="138" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="137" t="s">
-        <v>509</v>
-      </c>
-      <c r="B30" s="138" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="137" t="s">
-        <v>509</v>
-      </c>
-      <c r="B31" s="138" t="s">
-        <v>523</v>
-      </c>
-      <c r="C31" s="137" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="137" t="s">
-        <v>509</v>
-      </c>
-      <c r="B32" s="138" t="s">
-        <v>521</v>
-      </c>
-      <c r="C32" s="137" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="137" t="s">
-        <v>509</v>
-      </c>
-      <c r="B33" s="138" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="137" t="s">
-        <v>509</v>
-      </c>
-      <c r="B34" s="138" t="s">
-        <v>518</v>
-      </c>
-      <c r="C34" s="137" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="137" t="s">
-        <v>509</v>
-      </c>
-      <c r="B35" s="138" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="137" t="s">
-        <v>509</v>
-      </c>
-      <c r="B36" s="138" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="137" t="s">
-        <v>509</v>
-      </c>
-      <c r="B37" s="138" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="137" t="s">
-        <v>509</v>
-      </c>
-      <c r="B38" s="138" t="s">
-        <v>513</v>
-      </c>
-      <c r="C38" s="137" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="137" t="s">
-        <v>509</v>
-      </c>
-      <c r="B39" s="138" t="s">
-        <v>511</v>
-      </c>
-      <c r="C39" s="137" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="137" t="s">
-        <v>509</v>
-      </c>
-      <c r="B40" s="138" t="s">
-        <v>508</v>
-      </c>
-      <c r="C40" s="137" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="B41" s="138"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B9 B11:B38 B40">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <printOptions gridLines="1" gridLinesSet="0"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-  </headerFooter>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -7641,45 +6910,45 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>610</v>
+        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="161" t="s">
-        <v>610</v>
+      <c r="A2" s="154" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
-        <v>607</v>
+        <v>536</v>
       </c>
       <c r="C3" t="s">
-        <v>608</v>
+        <v>537</v>
       </c>
       <c r="D3" t="s">
-        <v>609</v>
+        <v>538</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>606</v>
-      </c>
-      <c r="B4" s="160" t="str">
+        <v>535</v>
+      </c>
+      <c r="B4" s="153" t="str">
         <f>MID(ADDRESS(ROW(),COLUMN()),2,SEARCH("$",ADDRESS(ROW(),COLUMN()),2)-2)</f>
         <v>B</v>
       </c>
-      <c r="C4" s="160" t="str">
+      <c r="C4" s="153" t="str">
         <f t="shared" ref="C4:D4" si="0">MID(ADDRESS(ROW(),COLUMN()),2,SEARCH("$",ADDRESS(ROW(),COLUMN()),2)-2)</f>
         <v>C</v>
       </c>
-      <c r="D4" s="160" t="str">
+      <c r="D4" s="153" t="str">
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>611</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -7717,8 +6986,8 @@
       <c r="B1" s="99"/>
     </row>
     <row r="2" spans="1:6" s="101" customFormat="1">
-      <c r="A2" s="161" t="s">
-        <v>610</v>
+      <c r="A2" s="154" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="101" customFormat="1" ht="18.75">
@@ -9489,87 +8758,87 @@
   </sheetData>
   <autoFilter ref="A3:B91"/>
   <conditionalFormatting sqref="D29:D48">
-    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="14" operator="equal">
       <formula>"VI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="15" operator="equal">
       <formula>"IV"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="16" operator="equal">
       <formula>"II"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E23">
-    <cfRule type="cellIs" dxfId="17" priority="24" operator="between">
+    <cfRule type="cellIs" dxfId="50" priority="24" operator="between">
       <formula>6</formula>
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="16" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="49" priority="25" operator="between">
       <formula>6</formula>
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D22">
-    <cfRule type="cellIs" dxfId="15" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="48" priority="22" operator="between">
       <formula>6</formula>
       <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53:B59 B74 B61 B64:B71">
-    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="13" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B80:B90">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="11" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="10" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="9" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="8" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="7" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="6" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B62:B63">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B60">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="4" operator="equal">
       <formula>$B$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L33">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
       <formula>"VI"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
       <formula>"IV"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
       <formula>"II"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10323,7 +9592,7 @@
   <sheetPr codeName="Lapas5"/>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
@@ -10341,18 +9610,18 @@
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
       <c r="A1" s="135" t="s">
-        <v>613</v>
+        <v>542</v>
       </c>
       <c r="B1" s="136"/>
       <c r="C1" s="135"/>
       <c r="D1" s="135"/>
       <c r="E1" s="135"/>
-      <c r="F1" s="161" t="s">
-        <v>610</v>
+      <c r="F1" s="154" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="157">
+      <c r="A2" s="160">
         <v>1</v>
       </c>
       <c r="B2" s="130" t="s">
@@ -10369,8 +9638,8 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="157"/>
-      <c r="B3" s="162" t="s">
+      <c r="A3" s="160"/>
+      <c r="B3" s="155" t="s">
         <v>497</v>
       </c>
       <c r="C3" s="129"/>
@@ -10575,7 +9844,7 @@
       <c r="E14" s="134"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="157">
+      <c r="A15" s="160">
         <v>2</v>
       </c>
       <c r="B15" s="130" t="s">
@@ -10592,8 +9861,8 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="157"/>
-      <c r="B16" s="162" t="s">
+      <c r="A16" s="160"/>
+      <c r="B16" s="155" t="s">
         <v>498</v>
       </c>
       <c r="C16" s="129"/>
@@ -10605,10 +9874,10 @@
         <f>A4</f>
         <v>Vidurkis</v>
       </c>
-      <c r="B17" s="163">
+      <c r="B17" s="156">
         <v>101</v>
       </c>
-      <c r="C17" s="164" t="s">
+      <c r="C17" s="157" t="s">
         <v>25</v>
       </c>
       <c r="D17" s="129">
@@ -10622,10 +9891,10 @@
         <f t="shared" ref="A18:A27" si="1">A5</f>
         <v>Skaičių kiekis</v>
       </c>
-      <c r="B18" s="163">
+      <c r="B18" s="156">
         <v>102</v>
       </c>
-      <c r="C18" s="164" t="s">
+      <c r="C18" s="157" t="s">
         <v>486</v>
       </c>
       <c r="D18" s="129">
@@ -10641,10 +9910,10 @@
         <f t="shared" si="1"/>
         <v>Reikšmių kiekis</v>
       </c>
-      <c r="B19" s="163">
+      <c r="B19" s="156">
         <v>103</v>
       </c>
-      <c r="C19" s="164" t="s">
+      <c r="C19" s="157" t="s">
         <v>477</v>
       </c>
       <c r="D19" s="129">
@@ -10660,10 +9929,10 @@
         <f t="shared" si="1"/>
         <v>Maksimali reikšmė</v>
       </c>
-      <c r="B20" s="163">
+      <c r="B20" s="156">
         <v>104</v>
       </c>
-      <c r="C20" s="164" t="s">
+      <c r="C20" s="157" t="s">
         <v>478</v>
       </c>
       <c r="D20" s="129">
@@ -10679,10 +9948,10 @@
         <f t="shared" si="1"/>
         <v>Minimali reikšmė</v>
       </c>
-      <c r="B21" s="163">
+      <c r="B21" s="156">
         <v>105</v>
       </c>
-      <c r="C21" s="164" t="s">
+      <c r="C21" s="157" t="s">
         <v>479</v>
       </c>
       <c r="D21" s="129">
@@ -10751,10 +10020,10 @@
         <f t="shared" si="1"/>
         <v>Suma</v>
       </c>
-      <c r="B25" s="163">
+      <c r="B25" s="156">
         <v>109</v>
       </c>
-      <c r="C25" s="164" t="s">
+      <c r="C25" s="157" t="s">
         <v>483</v>
       </c>
       <c r="D25" s="129">
@@ -10839,29 +10108,29 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="70" t="s">
-        <v>612</v>
+        <v>541</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="70" t="s">
-        <v>595</v>
+        <v>524</v>
       </c>
       <c r="E2" s="70" t="s">
-        <v>605</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="70" t="s">
-        <v>593</v>
+        <v>522</v>
       </c>
       <c r="B3" s="70" t="s">
         <v>414</v>
       </c>
       <c r="C3" s="70" t="s">
-        <v>592</v>
+        <v>521</v>
       </c>
       <c r="E3" s="70" t="s">
-        <v>593</v>
+        <v>522</v>
       </c>
       <c r="F3" s="70" t="s">
         <v>414</v>
@@ -10869,7 +10138,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="70" t="s">
-        <v>594</v>
+        <v>523</v>
       </c>
       <c r="B4" s="70">
         <v>0.75997599999999998</v>
@@ -10878,7 +10147,7 @@
         <f>IF(NOT(ISERROR(Duomenys[[#This Row],[Material]])),SUMIF(Duomenys[Material],Duomenys[[#This Row],[Material]],Duomenys[m2]),0)</f>
         <v>9.6360220000000005</v>
       </c>
-      <c r="D4" s="154"/>
+      <c r="D4" s="152"/>
       <c r="E4" s="70" t="str">
         <f t="array" ref="E4">INDEX(Duomenys[Material],MATCH(0,COUNTIF($E$3:E3,Duomenys[Material]),0))</f>
         <v>qqqqq</v>
@@ -10890,7 +10159,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="70" t="s">
-        <v>594</v>
+        <v>523</v>
       </c>
       <c r="B5" s="70">
         <v>0.36674800000000002</v>
@@ -10899,7 +10168,7 @@
         <f>IF(NOT(ISERROR(Duomenys[[#This Row],[Material]])),SUMIF(Duomenys[Material],Duomenys[[#This Row],[Material]],Duomenys[m2]),0)</f>
         <v>9.6360220000000005</v>
       </c>
-      <c r="D5" s="154"/>
+      <c r="D5" s="152"/>
       <c r="E5" s="70" t="str">
         <f t="array" ref="E5">INDEX(Duomenys[Material],MATCH(0,COUNTIF($E$3:E4,Duomenys[Material]),0))</f>
         <v>aaaaaaaaaaaaaaa</v>
@@ -10911,7 +10180,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="70" t="s">
-        <v>594</v>
+        <v>523</v>
       </c>
       <c r="B6" s="70">
         <v>2.0721400000000001</v>
@@ -10920,7 +10189,7 @@
         <f>IF(NOT(ISERROR(Duomenys[[#This Row],[Material]])),SUMIF(Duomenys[Material],Duomenys[[#This Row],[Material]],Duomenys[m2]),0)</f>
         <v>9.6360220000000005</v>
       </c>
-      <c r="D6" s="154"/>
+      <c r="D6" s="152"/>
       <c r="E6" s="70" t="str">
         <f t="array" ref="E6">INDEX(Duomenys[Material],MATCH(0,COUNTIF($E$3:E5,Duomenys[Material]),0))</f>
         <v>xx</v>
@@ -10932,7 +10201,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="70" t="s">
-        <v>594</v>
+        <v>523</v>
       </c>
       <c r="B7" s="70">
         <v>1.926296</v>
@@ -10941,7 +10210,7 @@
         <f>IF(NOT(ISERROR(Duomenys[[#This Row],[Material]])),SUMIF(Duomenys[Material],Duomenys[[#This Row],[Material]],Duomenys[m2]),0)</f>
         <v>9.6360220000000005</v>
       </c>
-      <c r="D7" s="154"/>
+      <c r="D7" s="152"/>
       <c r="E7" s="70" t="str">
         <f t="array" ref="E7">INDEX(Duomenys[Material],MATCH(0,COUNTIF($E$3:E6,Duomenys[Material]),0))</f>
         <v>ewewew</v>
@@ -10953,7 +10222,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="70" t="s">
-        <v>594</v>
+        <v>523</v>
       </c>
       <c r="B8" s="70">
         <v>1.1710780000000001</v>
@@ -10962,19 +10231,19 @@
         <f>IF(NOT(ISERROR(Duomenys[[#This Row],[Material]])),SUMIF(Duomenys[Material],Duomenys[[#This Row],[Material]],Duomenys[m2]),0)</f>
         <v>9.6360220000000005</v>
       </c>
-      <c r="D8" s="154"/>
-      <c r="E8" s="154" t="str">
+      <c r="D8" s="152"/>
+      <c r="E8" s="152" t="str">
         <f t="array" ref="E8">INDEX(Duomenys[Material],MATCH(0,COUNTIF($E$3:E7,Duomenys[Material]),0))</f>
         <v>ooooooooooooooooooo</v>
       </c>
-      <c r="F8" s="154">
+      <c r="F8" s="152">
         <f>VLOOKUP(Material[[#This Row],[Material]],Duomenys[],3,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="70" t="s">
-        <v>594</v>
+        <v>523</v>
       </c>
       <c r="B9" s="70">
         <v>0.69120000000000004</v>
@@ -10983,19 +10252,19 @@
         <f>IF(NOT(ISERROR(Duomenys[[#This Row],[Material]])),SUMIF(Duomenys[Material],Duomenys[[#This Row],[Material]],Duomenys[m2]),0)</f>
         <v>9.6360220000000005</v>
       </c>
-      <c r="D9" s="154"/>
-      <c r="E9" s="154" t="str">
+      <c r="D9" s="152"/>
+      <c r="E9" s="152" t="str">
         <f t="array" ref="E9">INDEX(Duomenys[Material],MATCH(0,COUNTIF($E$3:E8,Duomenys[Material]),0))</f>
         <v>uuuu</v>
       </c>
-      <c r="F9" s="154">
+      <c r="F9" s="152">
         <f>VLOOKUP(Material[[#This Row],[Material]],Duomenys[],3,0)</f>
         <v>1.4620500000000001</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="70" t="s">
-        <v>594</v>
+        <v>523</v>
       </c>
       <c r="B10" s="70">
         <v>0.24998400000000001</v>
@@ -11004,19 +10273,19 @@
         <f>IF(NOT(ISERROR(Duomenys[[#This Row],[Material]])),SUMIF(Duomenys[Material],Duomenys[[#This Row],[Material]],Duomenys[m2]),0)</f>
         <v>9.6360220000000005</v>
       </c>
-      <c r="D10" s="154"/>
-      <c r="E10" s="154" t="str">
+      <c r="D10" s="152"/>
+      <c r="E10" s="152" t="str">
         <f t="array" ref="E10">INDEX(Duomenys[Material],MATCH(0,COUNTIF($E$3:E9,Duomenys[Material]),0))</f>
         <v>qweqwerqwerqwerwer</v>
       </c>
-      <c r="F10" s="154">
+      <c r="F10" s="152">
         <f>VLOOKUP(Material[[#This Row],[Material]],Duomenys[],3,0)</f>
         <v>0.188</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="70" t="s">
-        <v>596</v>
+        <v>525</v>
       </c>
       <c r="B11" s="70">
         <v>0.96387</v>
@@ -11025,19 +10294,19 @@
         <f>IF(NOT(ISERROR(Duomenys[[#This Row],[Material]])),SUMIF(Duomenys[Material],Duomenys[[#This Row],[Material]],Duomenys[m2]),0)</f>
         <v>3.0520933333333318</v>
       </c>
-      <c r="D11" s="154"/>
-      <c r="E11" s="154" t="str">
+      <c r="D11" s="152"/>
+      <c r="E11" s="152" t="str">
         <f t="array" ref="E11">INDEX(Duomenys[Material],MATCH(0,COUNTIF($E$3:E10,Duomenys[Material]),0))</f>
         <v>wwwwwwwwwwwwwwww</v>
       </c>
-      <c r="F11" s="154">
+      <c r="F11" s="152">
         <f>VLOOKUP(Material[[#This Row],[Material]],Duomenys[],3,0)</f>
         <v>0.69120000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="70" t="s">
-        <v>597</v>
+        <v>526</v>
       </c>
       <c r="B12" s="70">
         <v>2.3986000000000001</v>
@@ -11046,19 +10315,19 @@
         <f>IF(NOT(ISERROR(Duomenys[[#This Row],[Material]])),SUMIF(Duomenys[Material],Duomenys[[#This Row],[Material]],Duomenys[m2]),0)</f>
         <v>147.59790000000001</v>
       </c>
-      <c r="D12" s="154"/>
-      <c r="E12" s="154" t="str">
+      <c r="D12" s="152"/>
+      <c r="E12" s="152" t="str">
         <f t="array" ref="E12">INDEX(Duomenys[Material],MATCH(0,COUNTIF($E$3:E11,Duomenys[Material]),0))</f>
         <v>oo</v>
       </c>
-      <c r="F12" s="154">
+      <c r="F12" s="152">
         <f>VLOOKUP(Material[[#This Row],[Material]],Duomenys[],3,0)</f>
         <v>0.24998400000000001</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="70" t="s">
-        <v>597</v>
+        <v>526</v>
       </c>
       <c r="B13" s="70">
         <v>1.1993</v>
@@ -11067,19 +10336,19 @@
         <f>IF(NOT(ISERROR(Duomenys[[#This Row],[Material]])),SUMIF(Duomenys[Material],Duomenys[[#This Row],[Material]],Duomenys[m2]),0)</f>
         <v>147.59790000000001</v>
       </c>
-      <c r="D13" s="154"/>
-      <c r="E13" s="154" t="str">
+      <c r="D13" s="152"/>
+      <c r="E13" s="152" t="str">
         <f t="array" ref="E13">INDEX(Duomenys[Material],MATCH(0,COUNTIF($E$3:E12,Duomenys[Material]),0))</f>
         <v>iii</v>
       </c>
-      <c r="F13" s="154">
+      <c r="F13" s="152">
         <f>VLOOKUP(Material[[#This Row],[Material]],Duomenys[],3,0)</f>
         <v>0.96387</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="70" t="s">
-        <v>598</v>
+        <v>527</v>
       </c>
       <c r="B14" s="70">
         <v>0</v>
@@ -11088,19 +10357,19 @@
         <f>IF(NOT(ISERROR(Duomenys[[#This Row],[Material]])),SUMIF(Duomenys[Material],Duomenys[[#This Row],[Material]],Duomenys[m2]),0)</f>
         <v>2.9241000000000001</v>
       </c>
-      <c r="D14" s="154"/>
-      <c r="E14" s="154" t="e">
+      <c r="D14" s="152"/>
+      <c r="E14" s="152" t="e">
         <f t="array" ref="E14">INDEX(Duomenys[Material],MATCH(0,COUNTIF($E$3:E13,Duomenys[Material]),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="F14" s="154" t="e">
+      <c r="F14" s="152" t="e">
         <f>VLOOKUP(Material[[#This Row],[Material]],Duomenys[],3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="70" t="s">
-        <v>603</v>
+        <v>532</v>
       </c>
       <c r="B15" s="70">
         <v>0</v>
@@ -11109,19 +10378,19 @@
         <f>IF(NOT(ISERROR(Duomenys[[#This Row],[Material]])),SUMIF(Duomenys[Material],Duomenys[[#This Row],[Material]],Duomenys[m2]),0)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="154"/>
-      <c r="E15" s="154" t="e">
+      <c r="D15" s="152"/>
+      <c r="E15" s="152" t="e">
         <f t="array" ref="E15">INDEX(Duomenys[Material],MATCH(0,COUNTIF($E$3:E14,Duomenys[Material]),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="F15" s="154" t="e">
+      <c r="F15" s="152" t="e">
         <f>VLOOKUP(Material[[#This Row],[Material]],Duomenys[],3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="70" t="s">
-        <v>598</v>
+        <v>527</v>
       </c>
       <c r="B16" s="70">
         <v>2.9241000000000001</v>
@@ -11130,19 +10399,19 @@
         <f>IF(NOT(ISERROR(Duomenys[[#This Row],[Material]])),SUMIF(Duomenys[Material],Duomenys[[#This Row],[Material]],Duomenys[m2]),0)</f>
         <v>2.9241000000000001</v>
       </c>
-      <c r="D16" s="154"/>
-      <c r="E16" s="154" t="e">
+      <c r="D16" s="152"/>
+      <c r="E16" s="152" t="e">
         <f t="array" ref="E16">INDEX(Duomenys[Material],MATCH(0,COUNTIF($E$3:E15,Duomenys[Material]),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="F16" s="154" t="e">
+      <c r="F16" s="152" t="e">
         <f>VLOOKUP(Material[[#This Row],[Material]],Duomenys[],3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="70" t="s">
-        <v>599</v>
+        <v>528</v>
       </c>
       <c r="B17" s="70">
         <v>1.4620500000000001</v>
@@ -11151,19 +10420,19 @@
         <f>IF(NOT(ISERROR(Duomenys[[#This Row],[Material]])),SUMIF(Duomenys[Material],Duomenys[[#This Row],[Material]],Duomenys[m2]),0)</f>
         <v>1.4620500000000001</v>
       </c>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154" t="e">
+      <c r="D17" s="152"/>
+      <c r="E17" s="152" t="e">
         <f t="array" ref="E17">INDEX(Duomenys[Material],MATCH(0,COUNTIF($E$3:E16,Duomenys[Material]),0))</f>
         <v>#N/A</v>
       </c>
-      <c r="F17" s="154" t="e">
+      <c r="F17" s="152" t="e">
         <f>VLOOKUP(Material[[#This Row],[Material]],Duomenys[],3,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="70" t="s">
-        <v>596</v>
+        <v>525</v>
       </c>
       <c r="B18" s="70">
         <v>0</v>
@@ -11172,11 +10441,11 @@
         <f>IF(NOT(ISERROR(Duomenys[[#This Row],[Material]])),SUMIF(Duomenys[Material],Duomenys[[#This Row],[Material]],Duomenys[m2]),0)</f>
         <v>3.0520933333333318</v>
       </c>
-      <c r="D18" s="154"/>
+      <c r="D18" s="152"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="70" t="s">
-        <v>596</v>
+        <v>525</v>
       </c>
       <c r="B19" s="70">
         <v>0.72</v>
@@ -11185,11 +10454,11 @@
         <f>IF(NOT(ISERROR(Duomenys[[#This Row],[Material]])),SUMIF(Duomenys[Material],Duomenys[[#This Row],[Material]],Duomenys[m2]),0)</f>
         <v>3.0520933333333318</v>
       </c>
-      <c r="D19" s="154"/>
+      <c r="D19" s="152"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="70" t="s">
-        <v>602</v>
+        <v>531</v>
       </c>
       <c r="B20" s="70">
         <v>0.188</v>
@@ -11198,11 +10467,11 @@
         <f>IF(NOT(ISERROR(Duomenys[[#This Row],[Material]])),SUMIF(Duomenys[Material],Duomenys[[#This Row],[Material]],Duomenys[m2]),0)</f>
         <v>0.188</v>
       </c>
-      <c r="D20" s="154"/>
+      <c r="D20" s="152"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="70" t="s">
-        <v>596</v>
+        <v>525</v>
       </c>
       <c r="B21" s="70">
         <v>0.16892333333333201</v>
@@ -11211,11 +10480,11 @@
         <f>IF(NOT(ISERROR(Duomenys[[#This Row],[Material]])),SUMIF(Duomenys[Material],Duomenys[[#This Row],[Material]],Duomenys[m2]),0)</f>
         <v>3.0520933333333318</v>
       </c>
-      <c r="D21" s="154"/>
+      <c r="D21" s="152"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="70" t="s">
-        <v>604</v>
+        <v>533</v>
       </c>
       <c r="B22" s="70">
         <v>0.69120000000000004</v>
@@ -11224,11 +10493,11 @@
         <f>IF(NOT(ISERROR(Duomenys[[#This Row],[Material]])),SUMIF(Duomenys[Material],Duomenys[[#This Row],[Material]],Duomenys[m2]),0)</f>
         <v>0.69120000000000004</v>
       </c>
-      <c r="D22" s="154"/>
+      <c r="D22" s="152"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="70" t="s">
-        <v>600</v>
+        <v>529</v>
       </c>
       <c r="B23" s="70">
         <v>0.24998400000000001</v>
@@ -11237,11 +10506,11 @@
         <f>IF(NOT(ISERROR(Duomenys[[#This Row],[Material]])),SUMIF(Duomenys[Material],Duomenys[[#This Row],[Material]],Duomenys[m2]),0)</f>
         <v>0.24998400000000001</v>
       </c>
-      <c r="D23" s="154"/>
+      <c r="D23" s="152"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="70" t="s">
-        <v>601</v>
+        <v>530</v>
       </c>
       <c r="B24" s="70">
         <v>0.96387</v>
@@ -11250,11 +10519,11 @@
         <f>IF(NOT(ISERROR(Duomenys[[#This Row],[Material]])),SUMIF(Duomenys[Material],Duomenys[[#This Row],[Material]],Duomenys[m2]),0)</f>
         <v>0.96387</v>
       </c>
-      <c r="D24" s="154"/>
+      <c r="D24" s="152"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="70" t="s">
-        <v>594</v>
+        <v>523</v>
       </c>
       <c r="B25" s="70">
         <v>2.3986000000000001</v>
@@ -11263,11 +10532,11 @@
         <f>IF(NOT(ISERROR(Duomenys[[#This Row],[Material]])),SUMIF(Duomenys[Material],Duomenys[[#This Row],[Material]],Duomenys[m2]),0)</f>
         <v>9.6360220000000005</v>
       </c>
-      <c r="D25" s="154"/>
+      <c r="D25" s="152"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="70" t="s">
-        <v>596</v>
+        <v>525</v>
       </c>
       <c r="B26" s="70">
         <v>1.1993</v>
@@ -11276,11 +10545,11 @@
         <f>IF(NOT(ISERROR(Duomenys[[#This Row],[Material]])),SUMIF(Duomenys[Material],Duomenys[[#This Row],[Material]],Duomenys[m2]),0)</f>
         <v>3.0520933333333318</v>
       </c>
-      <c r="D26" s="154"/>
+      <c r="D26" s="152"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="70" t="s">
-        <v>596</v>
+        <v>525</v>
       </c>
       <c r="B27" s="70">
         <v>0</v>
@@ -11289,11 +10558,11 @@
         <f>IF(NOT(ISERROR(Duomenys[[#This Row],[Material]])),SUMIF(Duomenys[Material],Duomenys[[#This Row],[Material]],Duomenys[m2]),0)</f>
         <v>3.0520933333333318</v>
       </c>
-      <c r="D27" s="154"/>
+      <c r="D27" s="152"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="70" t="s">
-        <v>597</v>
+        <v>526</v>
       </c>
       <c r="B28" s="70">
         <v>55</v>
@@ -11302,11 +10571,11 @@
         <f>IF(NOT(ISERROR(Duomenys[[#This Row],[Material]])),SUMIF(Duomenys[Material],Duomenys[[#This Row],[Material]],Duomenys[m2]),0)</f>
         <v>147.59790000000001</v>
       </c>
-      <c r="D28" s="154"/>
+      <c r="D28" s="152"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="70" t="s">
-        <v>597</v>
+        <v>526</v>
       </c>
       <c r="B29" s="70">
         <v>89</v>
@@ -11315,7 +10584,7 @@
         <f>IF(NOT(ISERROR(Duomenys[[#This Row],[Material]])),SUMIF(Duomenys[Material],Duomenys[[#This Row],[Material]],Duomenys[m2]),0)</f>
         <v>147.59790000000001</v>
       </c>
-      <c r="D29" s="154"/>
+      <c r="D29" s="152"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
